--- a/wwwroot/reports/VFW-MTN-002Rv01.xlsx
+++ b/wwwroot/reports/VFW-MTN-002Rv01.xlsx
@@ -425,15 +425,6 @@
     <border>
       <left/>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="dashed">
         <color auto="1"/>
@@ -451,6 +442,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -478,10 +478,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -496,7 +496,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -504,68 +555,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,8 +984,8 @@
   </sheetPr>
   <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1015,22 +1015,22 @@
     </row>
     <row r="2" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="30"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="2"/>
     </row>
@@ -1055,16 +1055,16 @@
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1215,11 +1215,11 @@
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="4"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="2"/>
@@ -1252,15 +1252,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="2"/>
     </row>
@@ -1275,13 +1277,13 @@
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+      <c r="K13" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="2"/>
     </row>
@@ -1296,13 +1298,6 @@
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="2"/>
     </row>
@@ -1346,16 +1341,16 @@
     </row>
     <row r="17" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="30"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1393,15 +1388,15 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="2"/>
     </row>
@@ -1414,15 +1409,15 @@
       <c r="F20" s="1"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="2"/>
     </row>
@@ -1435,13 +1430,13 @@
       <c r="F21" s="1"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="2"/>
     </row>
@@ -1454,13 +1449,13 @@
       <c r="F22" s="1"/>
       <c r="G22" s="11"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="2"/>
     </row>
@@ -1473,13 +1468,13 @@
       <c r="F23" s="1"/>
       <c r="G23" s="11"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="2"/>
     </row>
@@ -1492,13 +1487,13 @@
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="2"/>
     </row>
@@ -1523,24 +1518,28 @@
     </row>
     <row r="26" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="30"/>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="2"/>
     </row>
@@ -1548,22 +1547,22 @@
       <c r="A27" s="30"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="D27" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="15"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
+      <c r="K27" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="2"/>
     </row>
@@ -1571,22 +1570,9 @@
       <c r="A28" s="30"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="2"/>
     </row>
@@ -1630,112 +1616,112 @@
     </row>
     <row r="31" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="30"/>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="46" t="s">
+      <c r="K31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="48"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A32" s="30"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="51" t="s">
+      <c r="K32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="52" t="s">
+      <c r="L32" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="53"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="30"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="53"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A34" s="30"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="51" t="s">
+      <c r="K34" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="53"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="38"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A35" s="30"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="2"/>
     </row>
@@ -1767,15 +1753,15 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="2"/>
     </row>
@@ -1790,13 +1776,13 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="2"/>
     </row>
@@ -1850,13 +1836,13 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="50" t="s">
+      <c r="K41" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="2"/>
     </row>
@@ -2334,7 +2320,25 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="32">
+  <mergeCells count="29">
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I20:O24"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="D26:G26"/>
     <mergeCell ref="C33:I35"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="K41:O41"/>
@@ -2346,27 +2350,6 @@
     <mergeCell ref="K37:O37"/>
     <mergeCell ref="K38:O38"/>
     <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="K31:O31"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="I20:O24"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="K13:O13"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>

--- a/wwwroot/reports/VFW-MTN-002Rv01.xlsx
+++ b/wwwroot/reports/VFW-MTN-002Rv01.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>เอกสารใบขอยกเลิกการใช้งานเครื่องมือ   เครื่องจักร  และอุปกรณ์</t>
   </si>
@@ -158,12 +158,6 @@
     <t>ผู้อนุมัติ :</t>
   </si>
   <si>
-    <t>(     คุณ ธีรชาติ      ณ สงคราม     )</t>
-  </si>
-  <si>
-    <t>หัวหน้าหน่วยงานซ่อมบำรุง</t>
-  </si>
-  <si>
     <t>From. VFW - MTN - 002  Rv.01</t>
   </si>
   <si>
@@ -213,6 +207,15 @@
   </si>
   <si>
     <t>(data:RequestNameThai)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       หัวหน้าหน่วยงานซ่อมบำรุง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (     คุณ ธีรชาติ      ณ สงคราม     )</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -451,11 +454,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -495,76 +507,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -984,8 +997,8 @@
   </sheetPr>
   <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1015,22 +1028,22 @@
     </row>
     <row r="2" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="30"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="2"/>
     </row>
@@ -1055,16 +1068,16 @@
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1102,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -1112,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
@@ -1129,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -1139,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
@@ -1156,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -1166,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -1183,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -1193,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -1210,16 +1223,16 @@
         <v>10</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="4"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="2"/>
@@ -1252,17 +1265,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="2"/>
     </row>
@@ -1277,13 +1290,13 @@
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
+      <c r="K13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="2"/>
     </row>
@@ -1341,16 +1354,16 @@
     </row>
     <row r="17" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="30"/>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1379,7 +1392,7 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="30"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1388,15 +1401,15 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
+      <c r="I19" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="2"/>
     </row>
@@ -1409,15 +1422,15 @@
       <c r="F20" s="1"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="2"/>
     </row>
@@ -1430,13 +1443,13 @@
       <c r="F21" s="1"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="2"/>
     </row>
@@ -1449,13 +1462,13 @@
       <c r="F22" s="1"/>
       <c r="G22" s="11"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="2"/>
     </row>
@@ -1468,13 +1481,13 @@
       <c r="F23" s="1"/>
       <c r="G23" s="11"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="2"/>
     </row>
@@ -1487,13 +1500,13 @@
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="2"/>
     </row>
@@ -1518,28 +1531,28 @@
     </row>
     <row r="26" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="30"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="55" t="s">
+      <c r="J26" s="48"/>
+      <c r="K26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="2"/>
     </row>
@@ -1547,22 +1560,22 @@
       <c r="A27" s="30"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="15"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="2"/>
     </row>
@@ -1616,125 +1629,114 @@
     </row>
     <row r="31" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="30"/>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="57"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A32" s="30"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="37" t="s">
+      <c r="K32" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="38"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="30"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="B33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="38"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
       <c r="P33" s="17"/>
-      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A34" s="30"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="C34" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="37" t="s">
+      <c r="K34" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="38"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
       <c r="P34" s="17"/>
-      <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A35" s="30"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
       <c r="P35" s="17"/>
-      <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A36" s="30"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1747,21 +1749,21 @@
     <row r="37" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="30"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="42" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="2"/>
     </row>
@@ -1776,13 +1778,15 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
+      <c r="K38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="2"/>
     </row>
@@ -1797,13 +1801,13 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="2"/>
     </row>
@@ -1836,13 +1840,13 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
+      <c r="K41" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="2"/>
     </row>
@@ -2320,36 +2324,31 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="29">
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
+  <mergeCells count="24">
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K13:O13"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="K12:O12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I20:O24"/>
+    <mergeCell ref="J20:O24"/>
+    <mergeCell ref="C34:I37"/>
     <mergeCell ref="K26:O26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="K27:O27"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="I19:O19"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="C33:I35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="L32:O33"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="L34:O35"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
